--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gdf1-Acvr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gdf1-Acvr1.xlsx
@@ -543,10 +543,10 @@
         <v>0.18062</v>
       </c>
       <c r="I2">
-        <v>0.6707043100791313</v>
+        <v>0.7198826633506309</v>
       </c>
       <c r="J2">
-        <v>0.6707043100791313</v>
+        <v>0.7198826633506309</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.436778333333334</v>
+        <v>10.92359866666667</v>
       </c>
       <c r="N2">
-        <v>16.310335</v>
+        <v>32.770796</v>
       </c>
       <c r="O2">
-        <v>0.121853993972124</v>
+        <v>0.2236009040380497</v>
       </c>
       <c r="P2">
-        <v>0.121853993972124</v>
+        <v>0.2236009040380497</v>
       </c>
       <c r="Q2">
-        <v>0.3273303008555556</v>
+        <v>0.6576734637244446</v>
       </c>
       <c r="R2">
-        <v>2.9459727077</v>
+        <v>5.919061173520001</v>
       </c>
       <c r="S2">
-        <v>0.08172799895746008</v>
+        <v>0.1609664143265201</v>
       </c>
       <c r="T2">
-        <v>0.08172799895746008</v>
+        <v>0.16096641432652</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>0.18062</v>
       </c>
       <c r="I3">
-        <v>0.6707043100791313</v>
+        <v>0.7198826633506309</v>
       </c>
       <c r="J3">
-        <v>0.6707043100791313</v>
+        <v>0.7198826633506309</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>62.452076</v>
       </c>
       <c r="O3">
-        <v>0.4665774732677552</v>
+        <v>0.4261214970992155</v>
       </c>
       <c r="P3">
-        <v>0.4665774732677551</v>
+        <v>0.4261214970992155</v>
       </c>
       <c r="Q3">
         <v>1.253343774124444</v>
@@ -635,10 +635,10 @@
         <v>11.28009396712</v>
       </c>
       <c r="S3">
-        <v>0.3129355223065141</v>
+        <v>0.3067574782427414</v>
       </c>
       <c r="T3">
-        <v>0.3129355223065141</v>
+        <v>0.3067574782427414</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>0.18062</v>
       </c>
       <c r="I4">
-        <v>0.6707043100791313</v>
+        <v>0.7198826633506309</v>
       </c>
       <c r="J4">
-        <v>0.6707043100791313</v>
+        <v>0.7198826633506309</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.23122433333334</v>
+        <v>13.06524766666667</v>
       </c>
       <c r="N4">
-        <v>39.693673</v>
+        <v>39.195743</v>
       </c>
       <c r="O4">
-        <v>0.2965501683732102</v>
+        <v>0.2674394472823625</v>
       </c>
       <c r="P4">
-        <v>0.2965501683732101</v>
+        <v>0.2674394472823625</v>
       </c>
       <c r="Q4">
-        <v>0.796607913028889</v>
+        <v>0.7866150111844444</v>
       </c>
       <c r="R4">
-        <v>7.169471217260001</v>
+        <v>7.07953510066</v>
       </c>
       <c r="S4">
-        <v>0.1988974760826042</v>
+        <v>0.1925250215946478</v>
       </c>
       <c r="T4">
-        <v>0.1988974760826041</v>
+        <v>0.1925250215946478</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>0.18062</v>
       </c>
       <c r="I5">
-        <v>0.6707043100791313</v>
+        <v>0.7198826633506309</v>
       </c>
       <c r="J5">
-        <v>0.6707043100791313</v>
+        <v>0.7198826633506309</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.131792</v>
+        <v>4.046901</v>
       </c>
       <c r="N5">
-        <v>15.395376</v>
+        <v>12.140703</v>
       </c>
       <c r="O5">
-        <v>0.1150183643869107</v>
+        <v>0.0828381515803724</v>
       </c>
       <c r="P5">
-        <v>0.1150183643869107</v>
+        <v>0.0828381515803724</v>
       </c>
       <c r="Q5">
-        <v>0.3089680903466667</v>
+        <v>0.24365041954</v>
       </c>
       <c r="R5">
-        <v>2.78071281312</v>
+        <v>2.19285377586</v>
       </c>
       <c r="S5">
-        <v>0.07714331273255307</v>
+        <v>0.05963374918672176</v>
       </c>
       <c r="T5">
-        <v>0.07714331273255307</v>
+        <v>0.05963374918672176</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,22 +779,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.02955966666666667</v>
+        <v>0.02342733333333333</v>
       </c>
       <c r="H6">
-        <v>0.08867900000000001</v>
+        <v>0.070282</v>
       </c>
       <c r="I6">
-        <v>0.3292956899208686</v>
+        <v>0.2801173366493691</v>
       </c>
       <c r="J6">
-        <v>0.3292956899208687</v>
+        <v>0.2801173366493691</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.436778333333334</v>
+        <v>10.92359866666667</v>
       </c>
       <c r="N6">
-        <v>16.310335</v>
+        <v>32.770796</v>
       </c>
       <c r="O6">
-        <v>0.121853993972124</v>
+        <v>0.2236009040380497</v>
       </c>
       <c r="P6">
-        <v>0.121853993972124</v>
+        <v>0.2236009040380497</v>
       </c>
       <c r="Q6">
-        <v>0.1607093552738889</v>
+        <v>0.2559107871635556</v>
       </c>
       <c r="R6">
-        <v>1.446384197465</v>
+        <v>2.303197084472</v>
       </c>
       <c r="S6">
-        <v>0.04012599501466395</v>
+        <v>0.06263448971152963</v>
       </c>
       <c r="T6">
-        <v>0.04012599501466396</v>
+        <v>0.06263448971152963</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,22 +841,22 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.02955966666666667</v>
+        <v>0.02342733333333333</v>
       </c>
       <c r="H7">
-        <v>0.08867900000000001</v>
+        <v>0.070282</v>
       </c>
       <c r="I7">
-        <v>0.3292956899208686</v>
+        <v>0.2801173366493691</v>
       </c>
       <c r="J7">
-        <v>0.3292956899208687</v>
+        <v>0.2801173366493691</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>62.452076</v>
       </c>
       <c r="O7">
-        <v>0.4665774732677552</v>
+        <v>0.4261214970992155</v>
       </c>
       <c r="P7">
-        <v>0.4665774732677551</v>
+        <v>0.4261214970992155</v>
       </c>
       <c r="Q7">
-        <v>0.6153541830671112</v>
+        <v>0.4876952006035555</v>
       </c>
       <c r="R7">
-        <v>5.538187647604</v>
+        <v>4.389256805432</v>
       </c>
       <c r="S7">
-        <v>0.1536419509612411</v>
+        <v>0.1193640188564741</v>
       </c>
       <c r="T7">
-        <v>0.1536419509612411</v>
+        <v>0.1193640188564741</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,22 +903,22 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.02955966666666667</v>
+        <v>0.02342733333333333</v>
       </c>
       <c r="H8">
-        <v>0.08867900000000001</v>
+        <v>0.070282</v>
       </c>
       <c r="I8">
-        <v>0.3292956899208686</v>
+        <v>0.2801173366493691</v>
       </c>
       <c r="J8">
-        <v>0.3292956899208687</v>
+        <v>0.2801173366493691</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.23122433333334</v>
+        <v>13.06524766666667</v>
       </c>
       <c r="N8">
-        <v>39.693673</v>
+        <v>39.195743</v>
       </c>
       <c r="O8">
-        <v>0.2965501683732102</v>
+        <v>0.2674394472823625</v>
       </c>
       <c r="P8">
-        <v>0.2965501683732101</v>
+        <v>0.2674394472823625</v>
       </c>
       <c r="Q8">
-        <v>0.3911105808852223</v>
+        <v>0.3060839121695555</v>
       </c>
       <c r="R8">
-        <v>3.519995227967001</v>
+        <v>2.754755209526</v>
       </c>
       <c r="S8">
-        <v>0.097652692290606</v>
+        <v>0.07491442568771473</v>
       </c>
       <c r="T8">
-        <v>0.097652692290606</v>
+        <v>0.07491442568771473</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.02955966666666667</v>
+        <v>0.02342733333333333</v>
       </c>
       <c r="H9">
-        <v>0.08867900000000001</v>
+        <v>0.070282</v>
       </c>
       <c r="I9">
-        <v>0.3292956899208686</v>
+        <v>0.2801173366493691</v>
       </c>
       <c r="J9">
-        <v>0.3292956899208687</v>
+        <v>0.2801173366493691</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.131792</v>
+        <v>4.046901</v>
       </c>
       <c r="N9">
-        <v>15.395376</v>
+        <v>12.140703</v>
       </c>
       <c r="O9">
-        <v>0.1150183643869107</v>
+        <v>0.0828381515803724</v>
       </c>
       <c r="P9">
-        <v>0.1150183643869107</v>
+        <v>0.0828381515803724</v>
       </c>
       <c r="Q9">
-        <v>0.1516940609226667</v>
+        <v>0.09480809869399999</v>
       </c>
       <c r="R9">
-        <v>1.365246548304</v>
+        <v>0.853272888246</v>
       </c>
       <c r="S9">
-        <v>0.03787505165435762</v>
+        <v>0.02320440239365064</v>
       </c>
       <c r="T9">
-        <v>0.03787505165435762</v>
+        <v>0.02320440239365064</v>
       </c>
     </row>
   </sheetData>
